--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_135.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_135.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1736</v>
+        <v>2.3901</v>
       </c>
       <c r="J3" t="n">
-        <v>12.95</v>
+        <v>26.57</v>
       </c>
       <c r="K3" t="n">
-        <v>505.32</v>
+        <v>1140.01</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="R3" t="n">
-        <v>1096.6504</v>
+        <v>1202.951</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.0157</v>
+        <v>2.1891</v>
       </c>
       <c r="J4" t="n">
-        <v>26.45</v>
+        <v>16.97</v>
       </c>
       <c r="K4" t="n">
-        <v>957.1799999999999</v>
+        <v>667.1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1018.5</v>
+        <v>1092.854</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>10.129</v>
+        <v>10.9975</v>
       </c>
       <c r="J5" t="n">
-        <v>27.33</v>
+        <v>26.98</v>
       </c>
       <c r="K5" t="n">
-        <v>4969.45</v>
+        <v>5326.61</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>12.17</v>
+        <v>11.81</v>
       </c>
       <c r="R5" t="n">
-        <v>4309.6092</v>
+        <v>4546.1813</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>12.1313</v>
+        <v>13.3011</v>
       </c>
       <c r="J6" t="n">
-        <v>27.76</v>
+        <v>27.51</v>
       </c>
       <c r="K6" t="n">
-        <v>6047.02</v>
+        <v>6568.78</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>10.01</v>
+        <v>10.07</v>
       </c>
       <c r="R6" t="n">
-        <v>3544.5828</v>
+        <v>3874.643</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.313</v>
+        <v>5.7994</v>
       </c>
       <c r="J7" t="n">
-        <v>33.24</v>
+        <v>33.37</v>
       </c>
       <c r="K7" t="n">
-        <v>3170.19</v>
+        <v>3474.94</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.21</v>
+        <v>7.23</v>
       </c>
       <c r="R7" t="n">
-        <v>2552.7759</v>
+        <v>2783.2557</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>63.2908</v>
+        <v>70.4117</v>
       </c>
       <c r="J8" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="K8" t="n">
-        <v>4909.35</v>
+        <v>5483.22</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.66</v>
+        <v>13.91</v>
       </c>
       <c r="R8" t="n">
-        <v>4838.8313</v>
+        <v>5351.8247</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>12.8079</v>
+        <v>15.0048</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>436.92</v>
+        <v>500.74</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
-        <v>349.0403</v>
+        <v>391.6422</v>
       </c>
     </row>
   </sheetData>
